--- a/TATA_AIA_Custom_TOC Final - Updated by Akash Kale.xlsx
+++ b/TATA_AIA_Custom_TOC Final - Updated by Akash Kale.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Tata_AIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Tata_AIA\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39173A7F-30E5-4A58-9455-549695ACE221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D558B90C-C81A-4174-AEB7-2FD082DB4096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4052,8 +4052,8 @@
   </sheetPr>
   <dimension ref="B2:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
